--- a/TestingHarness_REMAIL.xlsx
+++ b/TestingHarness_REMAIL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Development\Development Operations\wCohen\In-Progress Projects\Ack Letters\Ver 5 - Setting default sig by amount\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Development\Development Operations\wCohen\In-Progress Projects\Ack Letters\Ver 6 - Special Letters and Trustee Sigs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="160">
-  <si>
-    <t>Setting Line Spacing</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="163">
   <si>
     <t>Citizens lbx</t>
   </si>
@@ -41,9 +38,6 @@
     <t>Leadership Gifts</t>
   </si>
   <si>
-    <t>DMQ1505</t>
-  </si>
-  <si>
     <t>Kelly and Emily Holland</t>
   </si>
   <si>
@@ -504,6 +498,21 @@
   </si>
   <si>
     <t>Country!</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>This is special BECAUSE WE SAID SO</t>
+  </si>
+  <si>
+    <t>Board Member</t>
+  </si>
+  <si>
+    <t>Appeal: DMQ1507, Emily Wroe Sig</t>
+  </si>
+  <si>
+    <t>DMQ1507</t>
   </si>
 </sst>
 </file>
@@ -539,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -557,6 +566,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,7 +850,7 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,165 +893,165 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="AH1" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="C2" s="1">
         <v>42086</v>
       </c>
       <c r="D2" s="2">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1">
         <v>42086</v>
       </c>
       <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
       <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>8</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>9</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>10</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>11</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AC2" t="s">
         <v>12</v>
-      </c>
-      <c r="X2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -1049,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4">
         <v>42086</v>
@@ -1061,54 +1071,54 @@
         <v>42086</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AC3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
@@ -1121,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4">
         <v>42086</v>
@@ -1133,54 +1143,54 @@
         <v>42086</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AC4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
@@ -1193,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4">
         <v>42086</v>
@@ -1205,54 +1215,54 @@
         <v>42086</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AC5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
@@ -1265,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4">
         <v>42086</v>
@@ -1277,66 +1287,66 @@
         <v>42086</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="N6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AC6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF6" s="3">
         <v>10</v>
@@ -1349,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4">
         <v>42006</v>
@@ -1361,56 +1371,56 @@
         <v>42006</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AC7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
@@ -1423,7 +1433,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4">
         <v>41987</v>
@@ -1435,65 +1445,65 @@
         <v>41987</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="M8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AC8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -1501,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4">
         <v>41980</v>
@@ -1513,58 +1523,58 @@
         <v>41980</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AC9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
@@ -1577,7 +1587,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4">
         <v>41978</v>
@@ -1589,56 +1599,56 @@
         <v>41978</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AC10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
@@ -1651,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4">
         <v>41975</v>
@@ -1663,70 +1673,70 @@
         <v>41975</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="J11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AC11" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH11" s="3"/>
     </row>
@@ -1735,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="4">
         <v>41945</v>
@@ -1747,60 +1757,60 @@
         <v>41945</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="K12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="M12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AC12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -1813,7 +1823,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4">
         <v>41940</v>
@@ -1825,58 +1835,58 @@
         <v>41940</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="O13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AC13" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
@@ -1889,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="4">
         <v>41940</v>
@@ -1901,58 +1911,58 @@
         <v>41940</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AC14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
@@ -1965,7 +1975,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="4">
         <v>41819</v>
@@ -1977,56 +1987,56 @@
         <v>41819</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AC15" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
@@ -2039,7 +2049,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" s="4">
         <v>41766</v>
@@ -2051,66 +2061,66 @@
         <v>41766</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="J16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="O16" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AC16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -2121,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" s="4">
         <v>41721</v>
@@ -2133,64 +2143,64 @@
         <v>41721</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="U17" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AC17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
@@ -2198,7 +2208,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C18" s="4">
         <v>41682</v>
@@ -2210,56 +2220,58 @@
         <v>41682</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U18" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC18" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AC18" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
@@ -2271,7 +2283,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C19" s="6">
         <v>41638</v>
@@ -2283,54 +2295,54 @@
         <v>41647</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AC19" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
@@ -2342,7 +2354,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" s="4">
         <v>41974</v>
@@ -2354,60 +2366,60 @@
         <v>41974</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Z20" s="3"/>
       <c r="AC20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
@@ -2419,7 +2431,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C21" s="4">
         <v>41974</v>
@@ -2431,62 +2443,64 @@
         <v>41974</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="H21" s="3" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="V21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="Y21" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Z21" s="3"/>
       <c r="AC21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>

--- a/TestingHarness_REMAIL.xlsx
+++ b/TestingHarness_REMAIL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Development\Development Operations\wCohen\In-Progress Projects\Ack Letters\Ver 6 - Special Letters and Trustee Sigs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Development\Development Operations\wCohen\In-Progress Projects\Ack Letters\Ver 5 - Setting default sig by amount\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="160">
+  <si>
+    <t>Setting Line Spacing</t>
+  </si>
   <si>
     <t>Citizens lbx</t>
   </si>
@@ -38,6 +41,9 @@
     <t>Leadership Gifts</t>
   </si>
   <si>
+    <t>DMQ1505</t>
+  </si>
+  <si>
     <t>Kelly and Emily Holland</t>
   </si>
   <si>
@@ -498,21 +504,6 @@
   </si>
   <si>
     <t>Country!</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>This is special BECAUSE WE SAID SO</t>
-  </si>
-  <si>
-    <t>Board Member</t>
-  </si>
-  <si>
-    <t>Appeal: DMQ1507, Emily Wroe Sig</t>
-  </si>
-  <si>
-    <t>DMQ1507</t>
   </si>
 </sst>
 </file>
@@ -548,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -566,7 +557,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,7 +840,7 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,165 +883,165 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="V1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>161</v>
+      <c r="B2" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>42086</v>
       </c>
       <c r="D2" s="2">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="E2" s="1">
         <v>42086</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>162</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -1059,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4">
         <v>42086</v>
@@ -1071,54 +1061,54 @@
         <v>42086</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AC3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
@@ -1131,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4">
         <v>42086</v>
@@ -1143,54 +1133,54 @@
         <v>42086</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AC4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
@@ -1203,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4">
         <v>42086</v>
@@ -1215,54 +1205,54 @@
         <v>42086</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AC5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
@@ -1275,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4">
         <v>42086</v>
@@ -1287,66 +1277,66 @@
         <v>42086</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AC6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AF6" s="3">
         <v>10</v>
@@ -1359,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4">
         <v>42006</v>
@@ -1371,56 +1361,56 @@
         <v>42006</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AC7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
@@ -1433,7 +1423,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4">
         <v>41987</v>
@@ -1445,65 +1435,65 @@
         <v>41987</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AC8" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -1511,7 +1501,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4">
         <v>41980</v>
@@ -1523,58 +1513,58 @@
         <v>41980</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AC9" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
@@ -1587,7 +1577,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" s="4">
         <v>41978</v>
@@ -1599,56 +1589,56 @@
         <v>41978</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AC10" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
@@ -1661,7 +1651,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C11" s="4">
         <v>41975</v>
@@ -1673,70 +1663,70 @@
         <v>41975</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AC11" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH11" s="3"/>
     </row>
@@ -1745,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C12" s="4">
         <v>41945</v>
@@ -1757,60 +1747,60 @@
         <v>41945</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AC12" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -1823,7 +1813,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C13" s="4">
         <v>41940</v>
@@ -1835,58 +1825,58 @@
         <v>41940</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AC13" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
@@ -1899,7 +1889,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C14" s="4">
         <v>41940</v>
@@ -1911,58 +1901,58 @@
         <v>41940</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AC14" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
@@ -1975,7 +1965,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4">
         <v>41819</v>
@@ -1987,56 +1977,56 @@
         <v>41819</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AC15" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
@@ -2049,7 +2039,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C16" s="4">
         <v>41766</v>
@@ -2061,66 +2051,66 @@
         <v>41766</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AC16" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -2131,7 +2121,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C17" s="4">
         <v>41721</v>
@@ -2143,64 +2133,64 @@
         <v>41721</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AC17" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
@@ -2208,7 +2198,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C18" s="4">
         <v>41682</v>
@@ -2220,58 +2210,56 @@
         <v>41682</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="Z18" s="3"/>
       <c r="AC18" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
@@ -2283,7 +2271,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C19" s="6">
         <v>41638</v>
@@ -2295,54 +2283,54 @@
         <v>41647</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AC19" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
@@ -2354,7 +2342,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C20" s="4">
         <v>41974</v>
@@ -2366,60 +2354,60 @@
         <v>41974</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Z20" s="3"/>
       <c r="AC20" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
@@ -2431,7 +2419,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C21" s="4">
         <v>41974</v>
@@ -2443,64 +2431,62 @@
         <v>41974</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Z21" s="3"/>
       <c r="AC21" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
